--- a/Project Documents/HELLSCENT 2023 WORK BREAKDOWN STRUCTURE.xlsx
+++ b/Project Documents/HELLSCENT 2023 WORK BREAKDOWN STRUCTURE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bsd405-my.sharepoint.com/personal/s-knotwella_bsd405_org/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-knotwella\TopDown\Project Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="8_{810D8AC6-C7DB-4B55-8471-051603407FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48823BED-A98C-43C0-81CA-3CB9812FA000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921EDC47-0AF7-4342-914E-DB304CE78EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{262C9EA2-0170-48E3-BC48-848692BFFBE2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="145">
   <si>
     <t>Owner</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Jack Nieman</t>
   </si>
   <si>
-    <t>Jack N </t>
-  </si>
-  <si>
     <t>5 </t>
   </si>
   <si>
@@ -80,13 +77,7 @@
     <t>Added a boss with difficult yet fun attack patterns, with everything for the next area loading showing up afterwards </t>
   </si>
   <si>
-    <t>16 </t>
-  </si>
-  <si>
     <t>Weapons </t>
-  </si>
-  <si>
-    <t>Added fully functional ranged weapons with editable parameters for damage, attack speed, mana cost, projectiles, number of projectiles, randomized stats, and more </t>
   </si>
   <si>
     <t>Ben </t>
@@ -331,51 +322,9 @@
     <t>Tile pallet &amp; sample room </t>
   </si>
   <si>
-    <t>Made tile pallet from package </t>
-  </si>
-  <si>
-    <t>Sample room in map scene </t>
-  </si>
-  <si>
     <t>Title screen  </t>
   </si>
   <si>
-    <t>Title screen scene </t>
-  </si>
-  <si>
-    <t>Canvas from imported ui set </t>
-  </si>
-  <si>
-    <t>Generic game title with custom font </t>
-  </si>
-  <si>
-    <t>Options Menu </t>
-  </si>
-  <si>
-    <t>Options menu </t>
-  </si>
-  <si>
-    <t>functional volume slider with label </t>
-  </si>
-  <si>
-    <t>11 </t>
-  </si>
-  <si>
-    <t>Player Controls/UI </t>
-  </si>
-  <si>
-    <t>Custom Key binds </t>
-  </si>
-  <si>
-    <t>User can set custom attack, grab item, and swap/drop item keys in options menu.  </t>
-  </si>
-  <si>
-    <t>Gabriel  </t>
-  </si>
-  <si>
-    <t>Pause game </t>
-  </si>
-  <si>
     <t>Alex Knotwell</t>
   </si>
   <si>
@@ -467,6 +416,81 @@
   </si>
   <si>
     <t xml:space="preserve">Created 2 7 frame animations for player to walk left or right. </t>
+  </si>
+  <si>
+    <t>Picking up weapons</t>
+  </si>
+  <si>
+    <t>Dropping weapons</t>
+  </si>
+  <si>
+    <t>More work on debugging weapons</t>
+  </si>
+  <si>
+    <t>Firing and rotation</t>
+  </si>
+  <si>
+    <t>Fixing rotation, adding customizable projectiles</t>
+  </si>
+  <si>
+    <t>Fixed merge conflicts, implementing mana</t>
+  </si>
+  <si>
+    <t>Implementing random stats</t>
+  </si>
+  <si>
+    <t>Made tile pallet from package and sample room using tiles all in map scene </t>
+  </si>
+  <si>
+    <t>Made title screen canvas from imported UIiset. Has generic game title with custom font </t>
+  </si>
+  <si>
+    <t>Title screen buttons </t>
+  </si>
+  <si>
+    <t>Non-functional start, quit, and options buttons. Buttons change appearance when pressed. </t>
+  </si>
+  <si>
+    <t>Start button  </t>
+  </si>
+  <si>
+    <t>Wrote script for Start button which switches to main game scene  </t>
+  </si>
+  <si>
+    <t>Quit button </t>
+  </si>
+  <si>
+    <t>Wrote script for quit button which quits application. I haven’t tested because I need to build the game on desktop to test quit. </t>
+  </si>
+  <si>
+    <t>Options Menu and volume slider </t>
+  </si>
+  <si>
+    <t>Created options menu canvas with generic non-functional volume slider </t>
+  </si>
+  <si>
+    <t>Volume value &amp; close button </t>
+  </si>
+  <si>
+    <t>Text shows numerical value of volume. The close button makes the options menu invisible. </t>
+  </si>
+  <si>
+    <t>1  </t>
+  </si>
+  <si>
+    <t>Volume slider functional </t>
+  </si>
+  <si>
+    <t>The volume slider is connected to game audio. I have not tested it because there is no music yet. </t>
+  </si>
+  <si>
+    <t>Player Controls &amp; UI </t>
+  </si>
+  <si>
+    <t>Custom attack keybind button </t>
+  </si>
+  <si>
+    <t>Made button in options menu for attack keybinds. Wrote script to show custom keybinds on button and store in PlayerPrefs as a string. Saves keybinds even after closing game. </t>
   </si>
 </sst>
 </file>
@@ -782,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -805,12 +829,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -835,12 +853,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -850,35 +880,59 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1194,40 +1248,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E01AB7-C3E4-4259-857A-9FD7B615EF5F}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="16.5703125" style="12"/>
-    <col min="6" max="6" width="40.5703125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="50.5703125" style="12" customWidth="1"/>
+    <col min="2" max="5" width="16.5703125" style="10"/>
+    <col min="6" max="6" width="40.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="50.5703125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1235,1183 +1289,1328 @@
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
         <v>10</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="11">
+        <v>15</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="14">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14">
+        <v>20</v>
+      </c>
+      <c r="D3" s="14">
         <v>13</v>
       </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="E3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="14">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14">
+        <v>30</v>
+      </c>
+      <c r="D4" s="14">
+        <v>11</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="14">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14">
+        <v>40</v>
+      </c>
+      <c r="D5" s="14">
+        <v>9</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="14">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14">
+        <v>55</v>
+      </c>
+      <c r="D6" s="14">
         <v>7</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>10</v>
-      </c>
       <c r="E6" s="14" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7"/>
+        <v>126</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>10</v>
+      <c r="A7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14">
+        <v>70</v>
+      </c>
+      <c r="D7" s="14">
+        <v>5</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="7"/>
+        <v>120</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>10</v>
+      <c r="A8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14">
+        <v>2</v>
+      </c>
+      <c r="C8" s="14">
+        <v>85</v>
+      </c>
+      <c r="D8" s="14">
+        <v>3</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>10</v>
+      <c r="A9" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="14">
+        <v>2</v>
+      </c>
+      <c r="C9" s="14">
+        <v>90</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="G10" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>36</v>
+      <c r="G11" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="C19" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="D19" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="F19" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="G19" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="24" t="s">
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="C21" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="16" t="s">
+      <c r="F21" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="24" t="s">
+      <c r="G21" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="24" t="s">
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="H22" s="30"/>
+    </row>
+    <row r="23" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="H23" s="30"/>
+    </row>
+    <row r="24" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="17" t="s">
+      <c r="H24" s="30"/>
+    </row>
+    <row r="25" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="26"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="28"/>
-    </row>
-    <row r="17" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="17" t="s">
+      <c r="B26" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="28"/>
-    </row>
-    <row r="18" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="17" t="s">
+      <c r="F26" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="28"/>
-    </row>
-    <row r="19" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="G26" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="24" t="s">
+      <c r="H26" s="22"/>
+    </row>
+    <row r="27" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="26"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="D28" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="20"/>
-    </row>
-    <row r="21" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="16" t="s">
+      <c r="E28" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="24" t="s">
+      <c r="G28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="26"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="24" t="s">
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="F30" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="20"/>
-    </row>
-    <row r="23" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="16" t="s">
+      <c r="G30" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="26"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="15" t="s">
+      <c r="G31" s="29"/>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="C32" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="20"/>
-    </row>
-    <row r="25" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="14" t="s">
+      <c r="G33" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="28" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="21"/>
-    </row>
-    <row r="29" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H31" s="20"/>
-    </row>
-    <row r="32" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H32" s="21"/>
-    </row>
-    <row r="33" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="G33" s="24"/>
-      <c r="H33" s="20"/>
+      <c r="H33" s="22"/>
     </row>
     <row r="34" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="21"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>86</v>
+        <v>68</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G36" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37" s="22"/>
+    </row>
+    <row r="38" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="26"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" s="23"/>
+    </row>
+    <row r="39" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="27"/>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="26"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="G37" s="15" t="s">
+      <c r="B41" s="8">
+        <v>2</v>
+      </c>
+      <c r="C41" s="20">
+        <v>1</v>
+      </c>
+      <c r="D41" s="8">
+        <v>0</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H37" s="20"/>
-    </row>
-    <row r="38" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="16" t="s">
+      <c r="F41" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H38" s="21"/>
-    </row>
-    <row r="39" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="24" t="s">
+      <c r="G41" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G39" s="15" t="s">
+    </row>
+    <row r="42" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="10">
+        <v>2</v>
+      </c>
+      <c r="C42" s="19">
+        <v>1</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H39" s="20"/>
-    </row>
-    <row r="40" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="17" t="s">
+      <c r="G42" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="H40" s="28"/>
-    </row>
-    <row r="41" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="16" t="s">
+    </row>
+    <row r="43" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="10">
+        <v>1</v>
+      </c>
+      <c r="C43" s="19">
+        <v>1</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H41" s="21"/>
-    </row>
-    <row r="42" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="24" t="s">
+      <c r="F43" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G43" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="H42" s="20"/>
-    </row>
-    <row r="43" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="16" t="s">
+    </row>
+    <row r="44" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H43" s="21"/>
-    </row>
-    <row r="44" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="10">
+        <v>2</v>
+      </c>
+      <c r="C44" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="10">
+        <v>2</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="14" t="s">
+      <c r="F44" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="G44" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G44" s="14" t="s">
+    </row>
+    <row r="45" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="10">
+        <v>2</v>
+      </c>
+      <c r="C45" s="19">
+        <v>1</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G45" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G45" s="18"/>
-      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B46" s="10">
-        <v>2</v>
-      </c>
-      <c r="C46" s="30">
+        <v>1</v>
+      </c>
+      <c r="C46" s="19">
         <v>1</v>
       </c>
       <c r="D46" s="10">
         <v>0</v>
       </c>
       <c r="E46" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="10">
+        <v>1</v>
+      </c>
+      <c r="C47" s="19">
+        <v>1</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="10">
+        <v>2</v>
+      </c>
+      <c r="C48" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="D48" s="10">
+        <v>10</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F48" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="G46" s="12" t="s">
+      <c r="G48" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B47" s="12">
+    <row r="49" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="10">
         <v>2</v>
       </c>
-      <c r="C47" s="29">
+      <c r="C49" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="10">
+        <v>8</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="10">
+        <v>3</v>
+      </c>
+      <c r="C50" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="D50" s="10">
+        <v>5</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="10">
+        <v>5</v>
+      </c>
+      <c r="C51" s="19">
         <v>1</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D51" s="10">
         <v>0</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E51" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F47" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="G47" s="32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" s="12">
-        <v>1</v>
-      </c>
-      <c r="C48" s="29">
-        <v>1</v>
-      </c>
-      <c r="D48" s="12">
-        <v>0</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G48" s="32" t="s">
+      <c r="F51" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31" t="s">
+      <c r="G51" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="12">
+    </row>
+    <row r="52" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="10">
+        <v>5</v>
+      </c>
+      <c r="C52" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="10">
         <v>2</v>
       </c>
-      <c r="C49" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="D49" s="12">
-        <v>2</v>
-      </c>
-      <c r="E49" s="12" t="s">
+      <c r="E52" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F52" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="G49" s="32" t="s">
+      <c r="G52" s="21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" s="12">
-        <v>2</v>
-      </c>
-      <c r="C50" s="29">
-        <v>1</v>
-      </c>
-      <c r="D50" s="12">
-        <v>0</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G50" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B51" s="12">
-        <v>1</v>
-      </c>
-      <c r="C51" s="29">
-        <v>1</v>
-      </c>
-      <c r="D51" s="12">
-        <v>0</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B52" s="12">
-        <v>1</v>
-      </c>
-      <c r="C52" s="29">
-        <v>1</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G52" s="32" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B53" s="12">
-        <v>2</v>
-      </c>
-      <c r="C53" s="29">
-        <v>0.25</v>
-      </c>
-      <c r="D53" s="12">
-        <v>10</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="G53" s="12" t="s">
+    <row r="53" spans="1:7" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="G53" s="36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G54" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G55" s="38" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54" s="12">
-        <v>2</v>
-      </c>
-      <c r="C54" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="D54" s="12">
-        <v>8</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F54" s="12" t="s">
+    <row r="56" spans="1:7" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G56" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="G54" s="12" t="s">
+    </row>
+    <row r="57" spans="1:7" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="32" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" s="12">
-        <v>3</v>
-      </c>
-      <c r="C55" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="D55" s="12">
-        <v>5</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F55" s="12" t="s">
+      <c r="G57" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="G55" s="32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B56" s="12">
-        <v>5</v>
-      </c>
-      <c r="C56" s="29">
-        <v>1</v>
-      </c>
-      <c r="D56" s="12">
-        <v>0</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F56" s="12" t="s">
+      <c r="G58" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G56" s="32" t="s">
+    </row>
+    <row r="59" spans="1:7" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="32" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B57" s="12">
-        <v>5</v>
-      </c>
-      <c r="C57" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="D57" s="12">
-        <v>2</v>
-      </c>
-      <c r="E57" s="12" t="s">
+      <c r="G59" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F57" s="12" t="s">
+    </row>
+    <row r="60" spans="1:7" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="G57" s="32" t="s">
+      <c r="G60" s="38" t="s">
         <v>136</v>
       </c>
     </row>
+    <row r="61" spans="1:7" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E62" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="G63" s="42" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="79">
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H31:H32"/>
+  <mergeCells count="58">
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H30:H31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:C34"/>
@@ -2420,34 +2619,42 @@
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project Documents/HELLSCENT 2023 WORK BREAKDOWN STRUCTURE.xlsx
+++ b/Project Documents/HELLSCENT 2023 WORK BREAKDOWN STRUCTURE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-knotwella\TopDown\Project Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-wongg\TopDown\Project Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921EDC47-0AF7-4342-914E-DB304CE78EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5ACF22D-C7CC-41DC-B08A-5A267C4CE435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{262C9EA2-0170-48E3-BC48-848692BFFBE2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="158">
   <si>
     <t>Owner</t>
   </si>
@@ -491,6 +491,45 @@
   </si>
   <si>
     <t>Made button in options menu for attack keybinds. Wrote script to show custom keybinds on button and store in PlayerPrefs as a string. Saves keybinds even after closing game. </t>
+  </si>
+  <si>
+    <t>Custom pick up item and swap item button </t>
+  </si>
+  <si>
+    <t>Created buttons for pick up item and swap item on options menu. Added to script but doesn’t save keybinds separately. </t>
+  </si>
+  <si>
+    <t>Saving multiple keybinds in Playerprefs </t>
+  </si>
+  <si>
+    <t>Edited Script to have separate strings in Playerprefs for each of the three keybinds.  </t>
+  </si>
+  <si>
+    <t>Player controls using custom keybinds </t>
+  </si>
+  <si>
+    <t>Implemented custom keybinds into playercontroller script. Doesn’t work because it doesn’t recognize string names of keybinds stored in Playerprefs. </t>
+  </si>
+  <si>
+    <t>Saving keybinds as ints </t>
+  </si>
+  <si>
+    <t>Saved keybinds as ints in Playerprefs because formatting doesn’t get messed up and Input.GetKeyDown can recognize ints as input. Now displays ints instead of names of keys in options menu. </t>
+  </si>
+  <si>
+    <t>Separating player keybind with displayed keybind in options menu </t>
+  </si>
+  <si>
+    <t>Created separate values for the int format of keybind and string format of keybind. Uses the int in playercontroller and displays string in options menu. </t>
+  </si>
+  <si>
+    <t>Pause game</t>
+  </si>
+  <si>
+    <t>Gameplay &amp; Player controls</t>
+  </si>
+  <si>
+    <t>User can press escape to pause the game(anything that uses time). Doesn’t stop update() from running</t>
   </si>
 </sst>
 </file>
@@ -806,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -871,6 +910,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -898,41 +979,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1248,11 +1299,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E01AB7-C3E4-4259-857A-9FD7B615EF5F}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39:F40"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1680,218 +1731,218 @@
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="41" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="22"/>
+      <c r="H19" s="36"/>
     </row>
     <row r="20" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="23"/>
+      <c r="H20" s="37"/>
     </row>
     <row r="21" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="27" t="s">
+      <c r="C21" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="41" t="s">
         <v>45</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="22"/>
+      <c r="H21" s="36"/>
     </row>
     <row r="22" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
       <c r="G22" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="30"/>
+      <c r="H22" s="44"/>
     </row>
     <row r="23" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
       <c r="G23" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="30"/>
+      <c r="H23" s="44"/>
     </row>
     <row r="24" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
       <c r="G24" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="30"/>
+      <c r="H24" s="44"/>
     </row>
     <row r="25" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
       <c r="G25" s="14"/>
-      <c r="H25" s="23"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="27" t="s">
+      <c r="C26" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="41" t="s">
         <v>52</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="22"/>
+      <c r="H26" s="36"/>
     </row>
     <row r="27" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
       <c r="G27" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H27" s="23"/>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="41" t="s">
         <v>57</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="22"/>
+      <c r="H28" s="36"/>
     </row>
     <row r="29" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
       <c r="G29" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="23"/>
+      <c r="H29" s="37"/>
     </row>
     <row r="30" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="27" t="s">
+      <c r="C30" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="41" t="s">
         <v>60</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="H30" s="22"/>
+      <c r="H30" s="36"/>
     </row>
     <row r="31" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="23"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
@@ -1918,38 +1969,38 @@
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="27" t="s">
+      <c r="C33" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F33" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G33" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="H33" s="22"/>
+      <c r="H33" s="36"/>
     </row>
     <row r="34" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="23"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="37"/>
     </row>
     <row r="35" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
@@ -2000,72 +2051,72 @@
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="27" t="s">
+      <c r="C37" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F37" s="41" t="s">
         <v>76</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="H37" s="22"/>
+      <c r="H37" s="36"/>
     </row>
     <row r="38" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
       <c r="G38" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="H38" s="23"/>
+      <c r="H38" s="37"/>
     </row>
     <row r="39" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="27" t="s">
+      <c r="C39" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="27" t="s">
+      <c r="F39" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="G39" s="27"/>
-      <c r="H39" s="22"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="36"/>
     </row>
     <row r="40" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="23"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="37"/>
     </row>
     <row r="41" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -2341,94 +2392,94 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="33" t="s">
+      <c r="A53" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="35" t="s">
+      <c r="C53" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="F53" s="35" t="s">
+      <c r="F53" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G53" s="36" t="s">
+      <c r="G53" s="27" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="31" t="s">
+      <c r="C54" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F54" s="31" t="s">
+      <c r="F54" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="G54" s="38" t="s">
+      <c r="G54" s="29" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="31" t="s">
+      <c r="C55" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="F55" s="31" t="s">
+      <c r="F55" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="G55" s="38" t="s">
+      <c r="G55" s="29" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="37" t="s">
+      <c r="A56" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="31" t="s">
+      <c r="C56" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F56" s="31" t="s">
+      <c r="F56" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G56" s="38" t="s">
+      <c r="G56" s="29" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2436,19 +2487,19 @@
       <c r="A57" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="32" t="s">
+      <c r="C57" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="32" t="s">
+      <c r="F57" s="23" t="s">
         <v>129</v>
       </c>
       <c r="G57" s="7" t="s">
@@ -2459,19 +2510,19 @@
       <c r="A58" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="32" t="s">
+      <c r="C58" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="32" t="s">
+      <c r="F58" s="23" t="s">
         <v>131</v>
       </c>
       <c r="G58" s="7" t="s">
@@ -2482,19 +2533,19 @@
       <c r="A59" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="32" t="s">
+      <c r="C59" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="32" t="s">
+      <c r="F59" s="23" t="s">
         <v>133</v>
       </c>
       <c r="G59" s="7" t="s">
@@ -2502,25 +2553,25 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="31" t="s">
+      <c r="C60" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F60" s="31" t="s">
+      <c r="F60" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="G60" s="38" t="s">
+      <c r="G60" s="29" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2528,19 +2579,19 @@
       <c r="A61" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="32" t="s">
+      <c r="C61" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="32" t="s">
+      <c r="F61" s="23" t="s">
         <v>137</v>
       </c>
       <c r="G61" s="7" t="s">
@@ -2551,46 +2602,184 @@
       <c r="A62" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C62" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="32" t="s">
+      <c r="C62" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E62" s="32" t="s">
+      <c r="E62" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F62" s="32" t="s">
+      <c r="F62" s="23" t="s">
         <v>140</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="39" t="s">
+    <row r="63" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="41" t="s">
+      <c r="C63" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="F63" s="41" t="s">
+      <c r="F63" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="G63" s="42" t="s">
+      <c r="G63" s="33" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" s="23">
+        <v>3</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="23">
+        <v>3</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E66" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="G66" s="35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="25">
+        <v>2</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="F68" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="G68" s="35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" s="10">
+        <v>1</v>
+      </c>
+      <c r="C69" s="19">
+        <v>1</v>
+      </c>
+      <c r="D69" s="10">
+        <v>0</v>
+      </c>
+      <c r="E69" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G69" s="21" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/Project Documents/HELLSCENT 2023 WORK BREAKDOWN STRUCTURE.xlsx
+++ b/Project Documents/HELLSCENT 2023 WORK BREAKDOWN STRUCTURE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-knotwella\TopDown\Project Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921EDC47-0AF7-4342-914E-DB304CE78EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFD65F3-3CD1-4685-8E4B-EF7FA9A0F97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{262C9EA2-0170-48E3-BC48-848692BFFBE2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="147">
   <si>
     <t>Owner</t>
   </si>
@@ -491,6 +491,12 @@
   </si>
   <si>
     <t>Made button in options menu for attack keybinds. Wrote script to show custom keybinds on button and store in PlayerPrefs as a string. Saves keybinds even after closing game. </t>
+  </si>
+  <si>
+    <t>Game Manager</t>
+  </si>
+  <si>
+    <t>Portal to Next Level</t>
   </si>
 </sst>
 </file>
@@ -806,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -871,6 +877,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -880,59 +922,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1248,11 +1257,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E01AB7-C3E4-4259-857A-9FD7B615EF5F}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39:F40"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1680,218 +1689,218 @@
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="38" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="22"/>
+      <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="23"/>
+      <c r="H20" s="35"/>
     </row>
     <row r="21" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="27" t="s">
+      <c r="C21" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="38" t="s">
         <v>45</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="22"/>
+      <c r="H21" s="34"/>
     </row>
     <row r="22" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="30"/>
+      <c r="H22" s="42"/>
     </row>
     <row r="23" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="30"/>
+      <c r="H23" s="42"/>
     </row>
     <row r="24" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="30"/>
+      <c r="H24" s="42"/>
     </row>
     <row r="25" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
       <c r="G25" s="14"/>
-      <c r="H25" s="23"/>
+      <c r="H25" s="35"/>
     </row>
     <row r="26" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="27" t="s">
+      <c r="C26" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="38" t="s">
         <v>52</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="22"/>
+      <c r="H26" s="34"/>
     </row>
     <row r="27" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
       <c r="G27" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H27" s="23"/>
+      <c r="H27" s="35"/>
     </row>
     <row r="28" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="38" t="s">
         <v>57</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="22"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
       <c r="G29" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="23"/>
+      <c r="H29" s="35"/>
     </row>
     <row r="30" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="27" t="s">
+      <c r="C30" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="38" t="s">
         <v>60</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H30" s="22"/>
+      <c r="H30" s="34"/>
     </row>
     <row r="31" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
       <c r="F31" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="23"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="35"/>
     </row>
     <row r="32" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
@@ -1918,38 +1927,38 @@
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="27" t="s">
+      <c r="C33" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F33" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G33" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="H33" s="22"/>
+      <c r="H33" s="34"/>
     </row>
     <row r="34" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="23"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="35"/>
     </row>
     <row r="35" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
@@ -2000,72 +2009,72 @@
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="27" t="s">
+      <c r="C37" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F37" s="38" t="s">
         <v>76</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="H37" s="22"/>
+      <c r="H37" s="34"/>
     </row>
     <row r="38" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
       <c r="G38" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="H38" s="23"/>
+      <c r="H38" s="35"/>
     </row>
     <row r="39" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="27" t="s">
+      <c r="C39" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="27" t="s">
+      <c r="F39" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="G39" s="27"/>
-      <c r="H39" s="22"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="34"/>
     </row>
     <row r="40" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="23"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="35"/>
     </row>
     <row r="41" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -2341,94 +2350,94 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="33" t="s">
+      <c r="A53" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="35" t="s">
+      <c r="C53" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="F53" s="35" t="s">
+      <c r="F53" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G53" s="36" t="s">
+      <c r="G53" s="27" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="31" t="s">
+      <c r="C54" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F54" s="31" t="s">
+      <c r="F54" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="G54" s="38" t="s">
+      <c r="G54" s="29" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="31" t="s">
+      <c r="C55" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="F55" s="31" t="s">
+      <c r="F55" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="G55" s="38" t="s">
+      <c r="G55" s="29" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="37" t="s">
+      <c r="A56" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="31" t="s">
+      <c r="C56" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F56" s="31" t="s">
+      <c r="F56" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G56" s="38" t="s">
+      <c r="G56" s="29" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2436,19 +2445,19 @@
       <c r="A57" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="32" t="s">
+      <c r="C57" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="32" t="s">
+      <c r="F57" s="23" t="s">
         <v>129</v>
       </c>
       <c r="G57" s="7" t="s">
@@ -2459,19 +2468,19 @@
       <c r="A58" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="32" t="s">
+      <c r="C58" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="32" t="s">
+      <c r="F58" s="23" t="s">
         <v>131</v>
       </c>
       <c r="G58" s="7" t="s">
@@ -2482,19 +2491,19 @@
       <c r="A59" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="32" t="s">
+      <c r="C59" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="32" t="s">
+      <c r="F59" s="23" t="s">
         <v>133</v>
       </c>
       <c r="G59" s="7" t="s">
@@ -2502,25 +2511,25 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="31" t="s">
+      <c r="C60" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F60" s="31" t="s">
+      <c r="F60" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="G60" s="38" t="s">
+      <c r="G60" s="29" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2528,19 +2537,19 @@
       <c r="A61" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="32" t="s">
+      <c r="C61" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="32" t="s">
+      <c r="F61" s="23" t="s">
         <v>137</v>
       </c>
       <c r="G61" s="7" t="s">
@@ -2551,19 +2560,19 @@
       <c r="A62" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C62" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="32" t="s">
+      <c r="C62" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E62" s="32" t="s">
+      <c r="E62" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F62" s="32" t="s">
+      <c r="F62" s="23" t="s">
         <v>140</v>
       </c>
       <c r="G62" s="7" t="s">
@@ -2571,30 +2580,90 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="39" t="s">
+      <c r="A63" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="41" t="s">
+      <c r="C63" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="F63" s="41" t="s">
+      <c r="F63" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="G63" s="42" t="s">
+      <c r="G63" s="33" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="10">
+        <v>3</v>
+      </c>
+      <c r="C64" s="19">
+        <v>1</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
@@ -2610,49 +2679,6 @@
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
